--- a/docs/Template-SEO-audit.xlsx
+++ b/docs/Template-SEO-audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">Achieve 4.5:1 ratio</t>
   </si>
   <si>
+    <t xml:space="preserve">change contrast ration between foreground and background elements.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEO</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">don’t use</t>
   </si>
   <si>
+    <t xml:space="preserve">remove excessive keywords from meta tags.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyboard navigation</t>
   </si>
   <si>
@@ -73,15 +79,33 @@
     <t xml:space="preserve">implement keyboard navigation</t>
   </si>
   <si>
+    <t xml:space="preserve">make every major element in the page accessible via keyboard.</t>
+  </si>
+  <si>
     <t xml:space="preserve">highlight focused component</t>
   </si>
   <si>
     <t xml:space="preserve">need indication that a component has focus</t>
   </si>
   <si>
+    <t xml:space="preserve">there should an indication that an element is currently focused.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add focus highlight to major elements in page.</t>
+  </si>
+  <si>
     <t xml:space="preserve">keyword stuffing in html</t>
   </si>
   <si>
+    <t xml:space="preserve">keyword stuffing is unnecessary and can be detrimental to SEO ranking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t do keyword stuffing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove unneccesary keywords from page.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alternative text for images</t>
   </si>
   <si>
@@ -115,7 +139,7 @@
     <t xml:space="preserve">text should be descriptive of purpose of page</t>
   </si>
   <si>
-    <t xml:space="preserve">name link “Contact Us”</t>
+    <t xml:space="preserve">change link text to meaningful descriptive text.</t>
   </si>
   <si>
     <t xml:space="preserve">loss of content when resizing page</t>
@@ -556,8 +580,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -622,23 +646,25 @@
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -646,16 +672,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -663,54 +689,67 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -718,16 +757,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -735,16 +774,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -752,16 +791,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -769,16 +808,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/docs/Template-SEO-audit.xlsx
+++ b/docs/Template-SEO-audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t xml:space="preserve">set label “for” field to input form field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct jscript urls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some jscript urls are incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct jscript urls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">change url links to jscripts files</t>
   </si>
 </sst>
 </file>
@@ -580,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -821,7 +833,21 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="6"/>
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E14" s="6"/>
